--- a/Food_data.xlsx
+++ b/Food_data.xlsx
@@ -506,9 +506,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U91" sqref="U91"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94:M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
